--- a/notebooks/4. Supervised learning/results_with_smote.xlsx
+++ b/notebooks/4. Supervised learning/results_with_smote.xlsx
@@ -423,13 +423,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -440,13 +440,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -457,13 +457,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>

--- a/notebooks/4. Supervised learning/results_with_smote.xlsx
+++ b/notebooks/4. Supervised learning/results_with_smote.xlsx
@@ -426,10 +426,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C2">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -457,13 +457,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>

--- a/notebooks/4. Supervised learning/results_with_smote.xlsx
+++ b/notebooks/4. Supervised learning/results_with_smote.xlsx
@@ -426,10 +426,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -457,13 +457,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C4">
         <v>0.8888888888888888</v>
       </c>
       <c r="D4">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>

--- a/notebooks/4. Supervised learning/results_with_smote.xlsx
+++ b/notebooks/4. Supervised learning/results_with_smote.xlsx
@@ -19,6 +19,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>sensitivity</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
   </si>
   <si>
     <t>smote</t>
-  </si>
-  <si>
-    <t>stacking_ensemble</t>
   </si>
   <si>
     <t>gradient_boosting</t>
@@ -395,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,55 +417,47 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5714285714285714</v>
+        <v>0.9970788704965921</v>
       </c>
       <c r="C2">
-        <v>0.8888888888888888</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E2" t="b">
+        <v>0.9979959919839679</v>
+      </c>
+      <c r="E2">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="F2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7142857142857143</v>
+        <v>0.9970788704965921</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C4">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="D4">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E4" t="b">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
